--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -28,6 +33,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +52,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +65,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +84,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +192,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +277,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +298,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +310,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +329,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +465,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +534,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1036,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1091,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1112,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1143,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1253,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1287,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1325,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1434,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1643,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1720,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2160,14 +2271,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2178,25 +2283,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2236,157 +2341,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2415,12 +2369,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2429,8 +2385,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2461,194 +2452,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2749,252 +2554,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3010,20 +2573,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3057,9 +2608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3067,59 +2615,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3192,6 +2708,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3449,270 +2968,267 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="19.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3726,7 +3242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:13">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3778,7 +3294,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>63</v>
       </c>
@@ -3798,7 +3314,7 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -3807,7 +3323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="1:13">
       <c r="E9" t="s">
         <v>68</v>
       </c>
@@ -3827,7 +3343,7 @@
         <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -3836,7 +3352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
         <v>70</v>
       </c>
@@ -3856,7 +3372,7 @@
         <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -3865,7 +3381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="1:13">
       <c r="E11" t="s">
         <v>72</v>
       </c>
@@ -3885,7 +3401,7 @@
         <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -3894,7 +3410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="1:13">
       <c r="E12" t="s">
         <v>74</v>
       </c>
@@ -3914,7 +3430,7 @@
         <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
         <v>66</v>
@@ -3923,7 +3439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="1:13">
       <c r="E13" t="s">
         <v>76</v>
       </c>
@@ -3943,7 +3459,7 @@
         <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
         <v>66</v>
@@ -3952,7 +3468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="5:12">
+    <row r="14" spans="1:13">
       <c r="E14" t="s">
         <v>78</v>
       </c>
@@ -3978,7 +3494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="5:12">
+    <row r="15" spans="1:13">
       <c r="E15" t="s">
         <v>83</v>
       </c>
@@ -4004,7 +3520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="5:12">
+    <row r="16" spans="1:13">
       <c r="E16" t="s">
         <v>85</v>
       </c>
@@ -4030,7 +3546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="5:12">
+    <row r="17" spans="1:12">
       <c r="E17" t="s">
         <v>87</v>
       </c>
@@ -4056,7 +3572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="5:12">
+    <row r="18" spans="1:12">
       <c r="E18" t="s">
         <v>89</v>
       </c>
@@ -4082,7 +3598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="5:12">
+    <row r="19" spans="1:12">
       <c r="E19" t="s">
         <v>91</v>
       </c>
@@ -4108,7 +3624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="5:12">
+    <row r="20" spans="1:12">
       <c r="E20" t="s">
         <v>93</v>
       </c>
@@ -4134,7 +3650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="5:12">
+    <row r="21" spans="1:12">
       <c r="E21" t="s">
         <v>95</v>
       </c>
@@ -4160,7 +3676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="5:12">
+    <row r="22" spans="1:12">
       <c r="E22" t="s">
         <v>97</v>
       </c>
@@ -4186,7 +3702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="5:12">
+    <row r="23" spans="1:12">
       <c r="E23" t="s">
         <v>99</v>
       </c>
@@ -4212,7 +3728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="5:12">
+    <row r="24" spans="1:12">
       <c r="E24" t="s">
         <v>101</v>
       </c>
@@ -4238,7 +3754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="5:12">
+    <row r="25" spans="1:12">
       <c r="E25" t="s">
         <v>103</v>
       </c>
@@ -4264,7 +3780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="5:12">
+    <row r="26" spans="1:12">
       <c r="E26" t="s">
         <v>105</v>
       </c>
@@ -4290,7 +3806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="5:12">
+    <row r="27" spans="1:12">
       <c r="E27" t="s">
         <v>107</v>
       </c>
@@ -4316,7 +3832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -4342,7 +3858,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="5:8">
+    <row r="30" spans="1:12">
       <c r="E30" t="s">
         <v>113</v>
       </c>
@@ -4357,7 +3873,7 @@
         <v>notify_message_setting-17</v>
       </c>
     </row>
-    <row r="31" spans="5:8">
+    <row r="31" spans="1:12">
       <c r="E31" t="s">
         <v>115</v>
       </c>
@@ -4372,7 +3888,7 @@
         <v>notify_message_setting-18</v>
       </c>
     </row>
-    <row r="32" spans="5:8">
+    <row r="32" spans="1:12">
       <c r="E32" t="s">
         <v>117</v>
       </c>
@@ -4643,7 +4159,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowHeight="19420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2034,6 +1923,9 @@
     <t>sms_enable</t>
   </si>
   <si>
+    <t>dt_enable</t>
+  </si>
+  <si>
     <t>notify_message_setting-8</t>
   </si>
   <si>
@@ -2049,6 +1941,9 @@
     <t>instance</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>notify_message_setting-9</t>
   </si>
   <si>
@@ -2089,9 +1984,6 @@
   </si>
   <si>
     <t>defaultValue</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>notify_message_setting-18</t>
@@ -2271,8 +2163,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2283,25 +2181,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2314,6 +2212,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2335,9 +2239,166 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2362,6 +2423,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2369,14 +2437,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2385,43 +2457,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2452,8 +2489,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2465,12 +2688,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2495,6 +2734,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2503,26 +2755,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2537,15 +2769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2554,10 +2777,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2573,69 +3038,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2708,9 +3220,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2968,267 +3477,271 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5789473684211" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3289473684211" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.0789473684211" customWidth="1"/>
+    <col min="4" max="4" width="35.3289473684211" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5789473684211" customWidth="1"/>
+    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
+    <col min="7" max="7" width="21.5789473684211" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5789473684211" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0789473684211" customWidth="1"/>
+    <col min="12" max="12" width="18.5789473684211" customWidth="1"/>
+    <col min="13" max="13" width="13.0789473684211" customWidth="1"/>
+    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
       <c r="A1" s="8"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="32" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="34" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="16" spans="1:3">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="20" t="s">
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="23" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="17" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="17" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="25" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="28" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="28" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="28" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="18" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="30" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="19.08203125" customWidth="1"/>
+    <col min="10" max="10" width="19.0789473684211" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3242,7 +3755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3253,7 +3766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3293,546 +3806,609 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14">
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14">
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14">
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="K14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
         <v>83</v>
       </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="K15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="K16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="K17" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
         <v>81</v>
       </c>
-      <c r="K18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="K20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="K21" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
         <v>81</v>
       </c>
-      <c r="K22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
         <v>81</v>
       </c>
-      <c r="K23" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
         <v>81</v>
       </c>
-      <c r="K24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
         <v>81</v>
       </c>
-      <c r="K25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14">
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
         <v>81</v>
       </c>
-      <c r="K26" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>67</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3843,60 +4419,60 @@
         <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H30" t="str">
         <f>项目层发送设置!$E$14</f>
         <v>notify_message_setting-17</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H31" t="str">
         <f>项目层发送设置!$E$15</f>
         <v>notify_message_setting-18</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32" t="str">
         <f>项目层发送设置!$E$16</f>
@@ -3905,13 +4481,13 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H33" t="str">
         <f>项目层发送设置!$E$17</f>
@@ -3920,13 +4496,13 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="str">
         <f>项目层发送设置!$E$18</f>
@@ -3935,13 +4511,13 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="str">
         <f>项目层发送设置!$E$19</f>
@@ -3950,13 +4526,13 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="str">
         <f>项目层发送设置!$E$20</f>
@@ -3965,13 +4541,13 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="str">
         <f>项目层发送设置!$E$21</f>
@@ -3980,13 +4556,13 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H38" t="str">
         <f>项目层发送设置!$E$22</f>
@@ -3995,13 +4571,13 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H39" t="str">
         <f>项目层发送设置!$E$23</f>
@@ -4010,13 +4586,13 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" t="str">
         <f>项目层发送设置!$E$24</f>
@@ -4025,13 +4601,13 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H41" t="str">
         <f>项目层发送设置!$E$25</f>
@@ -4040,13 +4616,13 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" t="str">
         <f>项目层发送设置!$E$26</f>
@@ -4055,13 +4631,13 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H43" t="str">
         <f>项目层发送设置!$E$8</f>
@@ -4070,13 +4646,13 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H44" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -4085,13 +4661,13 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
         <v>136</v>
       </c>
-      <c r="F45" t="s">
-        <v>135</v>
-      </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H45" t="str">
         <f>项目层发送设置!$E$13</f>
@@ -4100,13 +4676,13 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H46" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4115,13 +4691,13 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4130,13 +4706,13 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" t="str">
         <f>项目层发送设置!$E$11</f>
@@ -4145,13 +4721,13 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H49" t="str">
         <f>项目层发送设置!$E$27</f>
@@ -4159,8 +4735,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
   <si>
     <r>
       <rPr>
@@ -1905,7 +1905,10 @@
     <t>#code</t>
   </si>
   <si>
-    <t>#project_id</t>
+    <t>#source_id</t>
+  </si>
+  <si>
+    <t>#source_level</t>
   </si>
   <si>
     <t>#env_id</t>
@@ -1936,6 +1939,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
   <si>
     <t>instance</t>
@@ -2165,12 +2171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2216,12 +2222,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2239,8 +2239,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2260,10 +2288,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2282,6 +2334,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2290,9 +2350,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2314,53 +2382,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2373,33 +2394,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2423,13 +2417,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2442,12 +2429,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2491,13 +2472,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,7 +2520,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,19 +2550,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,31 +2598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2587,13 +2616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,73 +2640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2688,28 +2669,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2734,12 +2699,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2751,20 +2734,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2781,8 +2762,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2802,11 +2807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2829,23 +2840,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2860,169 +2856,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3041,112 +3022,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3481,7 +3462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3489,22 +3470,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5789473684211" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3289473684211" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.0789473684211" customWidth="1"/>
-    <col min="4" max="4" width="35.3289473684211" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5789473684211" customWidth="1"/>
-    <col min="6" max="6" width="23.4144736842105" customWidth="1"/>
-    <col min="7" max="7" width="21.5789473684211" customWidth="1"/>
+    <col min="1" max="1" width="15.5777777777778" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3259259259259" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="35.3259259259259" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5777777777778" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5777777777778" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5789473684211" customWidth="1"/>
+    <col min="9" max="9" width="24.5777777777778" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0789473684211" customWidth="1"/>
-    <col min="12" max="12" width="18.5789473684211" customWidth="1"/>
-    <col min="13" max="13" width="13.0789473684211" customWidth="1"/>
-    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5777777777778" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="14" max="1025" width="10.3259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -3514,130 +3495,130 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="23"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="11" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="12" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="18" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="14" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="19" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3646,39 +3627,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="21" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="22" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="22" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="22" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="22" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -3686,25 +3667,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="25" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3725,20 +3706,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5037037037037" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="19.0789473684211" customWidth="1"/>
+    <col min="6" max="6" width="27.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="32.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="32.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3766,7 +3750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3797,7 +3781,7 @@
       <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -3809,602 +3793,665 @@
       <c r="N7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="5:14">
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
         <v>69</v>
       </c>
-      <c r="L8" t="s">
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="M8" t="s">
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="N8">
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:14">
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="13" spans="5:15">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="I9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
         <v>71</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
         <v>69</v>
       </c>
-      <c r="L9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9">
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:14">
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
+    <row r="15" spans="5:15">
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
         <v>69</v>
       </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10">
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:14">
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s">
+    <row r="16" spans="5:15">
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
         <v>69</v>
       </c>
-      <c r="L11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11">
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:14">
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" t="s">
+    <row r="17" spans="5:15">
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
         <v>69</v>
       </c>
-      <c r="L12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12">
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="5:14">
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="s">
+    <row r="18" spans="5:15">
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
         <v>69</v>
       </c>
-      <c r="L13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13">
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="5:14">
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" t="s">
+    <row r="19" spans="5:15">
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
         <v>83</v>
       </c>
-      <c r="K14" t="s">
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
         <v>69</v>
       </c>
-      <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14">
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="5:14">
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
+    <row r="20" spans="5:15">
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="K15" t="s">
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
         <v>69</v>
       </c>
-      <c r="L15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15">
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:14">
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" t="s">
+    <row r="22" spans="5:15">
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
         <v>83</v>
       </c>
-      <c r="K16" t="s">
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
         <v>69</v>
       </c>
-      <c r="L16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16">
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:14">
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
+    <row r="23" spans="5:15">
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
         <v>83</v>
       </c>
-      <c r="K17" t="s">
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
         <v>69</v>
       </c>
-      <c r="L17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17">
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:14">
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
+    <row r="24" spans="5:15">
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
         <v>83</v>
       </c>
-      <c r="K18" t="s">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
         <v>69</v>
       </c>
-      <c r="L18" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18">
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:14">
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" t="s">
+    <row r="25" spans="5:15">
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
         <v>83</v>
       </c>
-      <c r="K19" t="s">
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
         <v>69</v>
       </c>
-      <c r="L19" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19">
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:14">
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" t="s">
+    <row r="26" spans="5:15">
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
         <v>83</v>
       </c>
-      <c r="K20" t="s">
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
         <v>69</v>
       </c>
-      <c r="L20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20">
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="5:14">
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" t="s">
+    <row r="27" spans="5:15">
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
         <v>83</v>
       </c>
-      <c r="K21" t="s">
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
         <v>69</v>
       </c>
-      <c r="L21" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="E26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14">
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" t="s">
-        <v>67</v>
-      </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27">
+        <v>71</v>
+      </c>
+      <c r="M27" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27">
         <v>1</v>
       </c>
     </row>
@@ -4419,30 +4466,30 @@
         <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="5:8">
       <c r="E30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" t="str">
         <f>项目层发送设置!$E$14</f>
@@ -4451,13 +4498,13 @@
     </row>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" t="str">
         <f>项目层发送设置!$E$15</f>
@@ -4466,13 +4513,13 @@
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" t="str">
         <f>项目层发送设置!$E$16</f>
@@ -4481,13 +4528,13 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33" t="str">
         <f>项目层发送设置!$E$17</f>
@@ -4496,13 +4543,13 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H34" t="str">
         <f>项目层发送设置!$E$18</f>
@@ -4511,13 +4558,13 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="str">
         <f>项目层发送设置!$E$19</f>
@@ -4526,13 +4573,13 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="str">
         <f>项目层发送设置!$E$20</f>
@@ -4541,13 +4588,13 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="str">
         <f>项目层发送设置!$E$21</f>
@@ -4556,13 +4603,13 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="str">
         <f>项目层发送设置!$E$22</f>
@@ -4571,13 +4618,13 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H39" t="str">
         <f>项目层发送设置!$E$23</f>
@@ -4586,13 +4633,13 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H40" t="str">
         <f>项目层发送设置!$E$24</f>
@@ -4601,13 +4648,13 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H41" t="str">
         <f>项目层发送设置!$E$25</f>
@@ -4616,13 +4663,13 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H42" t="str">
         <f>项目层发送设置!$E$26</f>
@@ -4631,13 +4678,13 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43" t="str">
         <f>项目层发送设置!$E$8</f>
@@ -4646,13 +4693,13 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H44" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -4661,13 +4708,13 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" t="str">
         <f>项目层发送设置!$E$13</f>
@@ -4676,13 +4723,13 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
         <v>138</v>
       </c>
-      <c r="F46" t="s">
-        <v>136</v>
-      </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H46" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4691,13 +4738,13 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H47" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4706,13 +4753,13 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H48" t="str">
         <f>项目层发送设置!$E$11</f>
@@ -4721,13 +4768,13 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H49" t="str">
         <f>项目层发送设置!$E$27</f>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="597" activeTab="1"/>
+    <workbookView windowHeight="15345" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -2068,6 +2068,18 @@
   </si>
   <si>
     <t>DELETEAPPSERVICE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-31</t>
+  </si>
+  <si>
+    <t>ENV_DEPLOY_FAIL</t>
+  </si>
+  <si>
+    <t>notify_message_setting-32</t>
+  </si>
+  <si>
+    <t>ENV_DEPLOY_SUCCESS</t>
   </si>
   <si>
     <t>notify_message_setting_target</t>
@@ -2171,10 +2183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2245,14 +2257,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2261,7 +2265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2275,24 +2279,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2312,10 +2308,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2351,6 +2348,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -2361,13 +2366,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,6 +2389,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2472,7 +2484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,55 +2496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,25 +2520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,31 +2544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2628,6 +2562,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2640,7 +2592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2652,7 +2604,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,15 +2771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2783,15 +2786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2803,6 +2797,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2859,148 +2871,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3708,10 +3720,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3723,6 +3735,8 @@
     <col min="8" max="8" width="32.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4445,8 +4459,8 @@
       <c r="K27" t="s">
         <v>85</v>
       </c>
-      <c r="L27" t="s">
-        <v>71</v>
+      <c r="L27">
+        <v>1</v>
       </c>
       <c r="M27" t="s">
         <v>68</v>
@@ -4455,60 +4469,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
+    <row r="28" spans="5:15">
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15">
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" t="str">
-        <f>项目层发送设置!$E$14</f>
-        <v>notify_message_setting-17</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8">
-      <c r="E31" t="s">
+      <c r="G31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="G31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" t="str">
-        <f>项目层发送设置!$E$15</f>
-        <v>notify_message_setting-18</v>
       </c>
     </row>
     <row r="32" spans="5:8">
@@ -4522,8 +4576,8 @@
         <v>68</v>
       </c>
       <c r="H32" t="str">
-        <f>项目层发送设置!$E$16</f>
-        <v>notify_message_setting-19</v>
+        <f>项目层发送设置!$E$14</f>
+        <v>notify_message_setting-17</v>
       </c>
     </row>
     <row r="33" spans="5:8">
@@ -4537,8 +4591,8 @@
         <v>68</v>
       </c>
       <c r="H33" t="str">
-        <f>项目层发送设置!$E$17</f>
-        <v>notify_message_setting-20</v>
+        <f>项目层发送设置!$E$15</f>
+        <v>notify_message_setting-18</v>
       </c>
     </row>
     <row r="34" spans="5:8">
@@ -4546,149 +4600,149 @@
         <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G34" t="s">
         <v>68</v>
       </c>
       <c r="H34" t="str">
+        <f>项目层发送设置!$E$16</f>
+        <v>notify_message_setting-19</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="str">
+        <f>项目层发送设置!$E$17</f>
+        <v>notify_message_setting-20</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" t="str">
         <f>项目层发送设置!$E$18</f>
         <v>notify_message_setting-21</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
-      <c r="E35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" t="str">
+    <row r="37" spans="5:8">
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="str">
         <f>项目层发送设置!$E$19</f>
         <v>notify_message_setting-22</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
-      <c r="E36" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" t="str">
+    <row r="38" spans="5:8">
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" t="str">
         <f>项目层发送设置!$E$20</f>
         <v>notify_message_setting-23</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
-      <c r="E37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" t="str">
+    <row r="39" spans="5:8">
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="str">
         <f>项目层发送设置!$E$21</f>
         <v>notify_message_setting-24</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
-      <c r="E38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" t="str">
+    <row r="40" spans="5:8">
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" t="str">
         <f>项目层发送设置!$E$22</f>
         <v>notify_message_setting-25</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
-      <c r="E39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" t="str">
+    <row r="41" spans="5:8">
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" t="str">
         <f>项目层发送设置!$E$23</f>
         <v>notify_message_setting-26</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
-      <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" t="str">
+    <row r="42" spans="5:8">
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" t="str">
         <f>项目层发送设置!$E$24</f>
         <v>notify_message_setting-27</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
-      <c r="E41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" t="str">
+    <row r="43" spans="5:8">
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" t="str">
         <f>项目层发送设置!$E$25</f>
         <v>notify_message_setting-28</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8">
-      <c r="E42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" t="str">
-        <f>项目层发送设置!$E$26</f>
-        <v>notify_message_setting-29</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8">
-      <c r="E43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" t="str">
-        <f>项目层发送设置!$E$8</f>
-        <v>notify_message_setting-8</v>
       </c>
     </row>
     <row r="44" spans="5:8">
@@ -4702,8 +4756,8 @@
         <v>68</v>
       </c>
       <c r="H44" t="str">
-        <f>项目层发送设置!$E$9</f>
-        <v>notify_message_setting-9</v>
+        <f>项目层发送设置!$E$26</f>
+        <v>notify_message_setting-29</v>
       </c>
     </row>
     <row r="45" spans="5:8">
@@ -4711,72 +4765,102 @@
         <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G45" t="s">
         <v>68</v>
       </c>
       <c r="H45" t="str">
+        <f>项目层发送设置!$E$8</f>
+        <v>notify_message_setting-8</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="str">
+        <f>项目层发送设置!$E$9</f>
+        <v>notify_message_setting-9</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="str">
         <f>项目层发送设置!$E$13</f>
         <v>notify_message_setting-13</v>
       </c>
     </row>
-    <row r="46" spans="5:8">
-      <c r="E46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" t="str">
+    <row r="48" spans="5:8">
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="str">
         <f>项目层发送设置!$E$10</f>
         <v>notify_message_setting-10</v>
       </c>
     </row>
-    <row r="47" spans="5:8">
-      <c r="E47" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" t="str">
+    <row r="49" spans="5:8">
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="str">
         <f>项目层发送设置!$E$12</f>
         <v>notify_message_setting-12</v>
       </c>
     </row>
-    <row r="48" spans="5:8">
-      <c r="E48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" t="str">
+    <row r="50" spans="5:8">
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" t="str">
         <f>项目层发送设置!$E$11</f>
         <v>notify_message_setting-11</v>
       </c>
     </row>
-    <row r="49" spans="5:8">
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" t="s">
-        <v>117</v>
-      </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" t="str">
+    <row r="51" spans="5:8">
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" t="str">
         <f>项目层发送设置!$E$27</f>
         <v>notify_message_setting-30</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
@@ -3723,7 +3723,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4492,10 +4492,10 @@
         <v>85</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4527,10 +4527,10 @@
         <v>85</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/devops-project-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15345" tabRatio="597" activeTab="1"/>
+    <workbookView windowHeight="17730" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
   <si>
     <r>
       <rPr>
@@ -1927,6 +1927,9 @@
   </si>
   <si>
     <t>dt_enable</t>
+  </si>
+  <si>
+    <t>wechat_enterprise_enable</t>
   </si>
   <si>
     <t>notify_message_setting-8</t>
@@ -2183,10 +2186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2234,6 +2237,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2251,59 +2260,69 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2311,14 +2330,67 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2326,84 +2398,15 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2484,168 +2487,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2658,13 +2499,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2681,12 +2684,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2711,6 +2730,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2719,26 +2751,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2753,21 +2765,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2782,6 +2794,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2803,33 +2839,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2852,170 +2866,159 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3034,112 +3037,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="14"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3482,7 +3485,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5777777777778" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.3259259259259" style="6" customWidth="1"/>
@@ -3507,36 +3510,36 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="11"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3546,91 +3549,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" ht="17.25" spans="3:5">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" ht="47.25" spans="3:6">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" ht="47.25" spans="3:5">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" ht="63" spans="3:5">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" ht="17.25" spans="3:5">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" ht="17.25" spans="3:5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" ht="17.25" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" ht="31.5" spans="3:5">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3640,38 +3643,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" ht="17.25" spans="3:4">
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" ht="17.25" spans="3:4">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" ht="17.25" spans="3:4">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" ht="17.25" spans="3:4">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -3679,25 +3682,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="47.25" spans="3:3">
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3720,22 +3723,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="20.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="31.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="27.2518518518519" customWidth="1"/>
     <col min="7" max="7" width="32.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="32.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.3333333333333" customWidth="1"/>
     <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3764,7 +3767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3810,686 +3813,749 @@
       <c r="O7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="5:15">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16">
       <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" t="s">
-        <v>71</v>
-      </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="5:15">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16">
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="5:15">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16">
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="5:15">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16">
       <c r="E12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="5:15">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16">
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="5:15">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16">
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="5:15">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16">
       <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
         <v>86</v>
       </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="5:15">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16">
       <c r="E16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="5:15">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16">
       <c r="E17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="5:15">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16">
       <c r="E18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="5:15">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16">
       <c r="E19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="5:15">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16">
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="5:15">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16">
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="5:15">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16">
       <c r="E22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="5:15">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16">
       <c r="E23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="5:15">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16">
       <c r="E24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="5:15">
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16">
       <c r="E25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="5:15">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16">
       <c r="E26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="5:15">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16">
       <c r="E27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="5:15">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16">
       <c r="E28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4503,28 +4569,31 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="5:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16">
       <c r="E29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4536,6 +4605,9 @@
         <v>0</v>
       </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>0</v>
       </c>
     </row>
@@ -4550,30 +4622,30 @@
         <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H32" t="str">
         <f>项目层发送设置!$E$14</f>
@@ -4582,13 +4654,13 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H33" t="str">
         <f>项目层发送设置!$E$15</f>
@@ -4597,13 +4669,13 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" t="str">
         <f>项目层发送设置!$E$16</f>
@@ -4612,13 +4684,13 @@
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" t="str">
         <f>项目层发送设置!$E$17</f>
@@ -4627,13 +4699,13 @@
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="str">
         <f>项目层发送设置!$E$18</f>
@@ -4642,13 +4714,13 @@
     </row>
     <row r="37" spans="5:8">
       <c r="E37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="str">
         <f>项目层发送设置!$E$19</f>
@@ -4657,13 +4729,13 @@
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="str">
         <f>项目层发送设置!$E$20</f>
@@ -4672,13 +4744,13 @@
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="str">
         <f>项目层发送设置!$E$21</f>
@@ -4687,13 +4759,13 @@
     </row>
     <row r="40" spans="5:8">
       <c r="E40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H40" t="str">
         <f>项目层发送设置!$E$22</f>
@@ -4702,13 +4774,13 @@
     </row>
     <row r="41" spans="5:8">
       <c r="E41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H41" t="str">
         <f>项目层发送设置!$E$23</f>
@@ -4717,13 +4789,13 @@
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H42" t="str">
         <f>项目层发送设置!$E$24</f>
@@ -4732,13 +4804,13 @@
     </row>
     <row r="43" spans="5:8">
       <c r="E43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H43" t="str">
         <f>项目层发送设置!$E$25</f>
@@ -4747,13 +4819,13 @@
     </row>
     <row r="44" spans="5:8">
       <c r="E44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H44" t="str">
         <f>项目层发送设置!$E$26</f>
@@ -4762,13 +4834,13 @@
     </row>
     <row r="45" spans="5:8">
       <c r="E45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H45" t="str">
         <f>项目层发送设置!$E$8</f>
@@ -4777,13 +4849,13 @@
     </row>
     <row r="46" spans="5:8">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H46" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -4792,13 +4864,13 @@
     </row>
     <row r="47" spans="5:8">
       <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
         <v>143</v>
       </c>
-      <c r="F47" t="s">
-        <v>142</v>
-      </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H47" t="str">
         <f>项目层发送设置!$E$13</f>
@@ -4807,13 +4879,13 @@
     </row>
     <row r="48" spans="5:8">
       <c r="E48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H48" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4822,13 +4894,13 @@
     </row>
     <row r="49" spans="5:8">
       <c r="E49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H49" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4837,13 +4909,13 @@
     </row>
     <row r="50" spans="5:8">
       <c r="E50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H50" t="str">
         <f>项目层发送设置!$E$11</f>
@@ -4852,13 +4924,13 @@
     </row>
     <row r="51" spans="5:8">
       <c r="E51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H51" t="str">
         <f>项目层发送设置!$E$27</f>
